--- a/Energy use of products.xlsx
+++ b/Energy use of products.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahritchie/Desktop/data-projects/energy-use-products/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E34291-5873-2340-B621-5C7A4B810033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F401EF-A143-2B4F-92DD-62FB4ACA42BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{E9F44B29-F67D-AA43-897E-E427581FB5C3}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="30240" windowHeight="17180" xr2:uid="{E9F44B29-F67D-AA43-897E-E427581FB5C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Energy" sheetId="2" r:id="rId1"/>
@@ -700,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B239A6D3-151C-6C42-AB20-47DEE8CAFF43}">
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -709,7 +709,8 @@
     <col min="1" max="1" width="31.1640625" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -1000,7 +1001,7 @@
         <v>25</v>
       </c>
       <c r="D19" s="1">
-        <f>1/60*5</f>
+        <f>1/12</f>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="E19" s="2">
@@ -1133,12 +1134,13 @@
       <c r="C28" t="s">
         <v>25</v>
       </c>
-      <c r="D28">
-        <v>0.16</v>
+      <c r="D28" s="1">
+        <f>1/6</f>
+        <v>0.16666666666666666</v>
       </c>
       <c r="E28" s="2">
         <f t="shared" ref="E28" si="5">B28*D28</f>
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -1195,12 +1197,13 @@
       <c r="C33" t="s">
         <v>25</v>
       </c>
-      <c r="D33">
-        <v>0.16</v>
+      <c r="D33" s="1">
+        <f>1/6</f>
+        <v>0.16666666666666666</v>
       </c>
       <c r="E33" s="2">
         <f t="shared" ref="E33" si="6">B33*D33</f>
-        <v>400</v>
+        <v>416.66666666666663</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -1218,12 +1221,13 @@
       <c r="C35" t="s">
         <v>25</v>
       </c>
-      <c r="D35">
-        <v>0.08</v>
-      </c>
-      <c r="E35">
-        <f>B35*D35</f>
-        <v>140</v>
+      <c r="D35" s="1">
+        <f>1/12</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E35" s="1">
+        <f t="shared" ref="E35:E45" si="7">B35*D35</f>
+        <v>145.83333333333331</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -1236,12 +1240,13 @@
       <c r="C36" t="s">
         <v>25</v>
       </c>
-      <c r="D36">
-        <v>0.16</v>
-      </c>
-      <c r="E36">
-        <f>B36*D36</f>
-        <v>1520</v>
+      <c r="D36" s="1">
+        <f>1/6</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E36" s="2">
+        <f t="shared" si="7"/>
+        <v>1583.3333333333333</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -1255,12 +1260,13 @@
       <c r="C37" t="s">
         <v>25</v>
       </c>
-      <c r="D37">
-        <v>0.16</v>
+      <c r="D37" s="1">
+        <f>1/6</f>
+        <v>0.16666666666666666</v>
       </c>
       <c r="E37" s="2">
-        <f>B37*D37</f>
-        <v>1688.8888888888887</v>
+        <f t="shared" si="7"/>
+        <v>1759.2592592592591</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -1277,7 +1283,7 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <f>B38*D38</f>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
     </row>
@@ -1295,7 +1301,7 @@
         <v>1</v>
       </c>
       <c r="E39">
-        <f>B39*D39</f>
+        <f t="shared" si="7"/>
         <v>750</v>
       </c>
     </row>
@@ -1313,7 +1319,7 @@
         <v>1</v>
       </c>
       <c r="E40">
-        <f>B40*D40</f>
+        <f t="shared" si="7"/>
         <v>1500</v>
       </c>
     </row>
@@ -1331,7 +1337,7 @@
         <v>1</v>
       </c>
       <c r="E41">
-        <f>B41*D41</f>
+        <f t="shared" si="7"/>
         <v>800</v>
       </c>
     </row>
@@ -1349,7 +1355,7 @@
         <v>1</v>
       </c>
       <c r="E42">
-        <f>B42*D42</f>
+        <f t="shared" si="7"/>
         <v>2250</v>
       </c>
     </row>
@@ -1367,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="E43">
-        <f>B43*D43</f>
+        <f t="shared" si="7"/>
         <v>2700</v>
       </c>
     </row>
@@ -1385,7 +1391,7 @@
         <v>1</v>
       </c>
       <c r="E44">
-        <f>B44*D44</f>
+        <f t="shared" si="7"/>
         <v>7500</v>
       </c>
     </row>
@@ -1403,7 +1409,7 @@
         <v>1</v>
       </c>
       <c r="E45">
-        <f>B45*D45</f>
+        <f t="shared" si="7"/>
         <v>1000</v>
       </c>
     </row>

--- a/Energy use of products.xlsx
+++ b/Energy use of products.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10208"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahritchie/Desktop/data-projects/energy-use-products/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F401EF-A143-2B4F-92DD-62FB4ACA42BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E932A3BB-513F-B241-8586-27366F7FD331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="30240" windowHeight="17180" xr2:uid="{E9F44B29-F67D-AA43-897E-E427581FB5C3}"/>
+    <workbookView xWindow="21960" yWindow="2800" windowWidth="33820" windowHeight="22300" xr2:uid="{E9F44B29-F67D-AA43-897E-E427581FB5C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Energy" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="77">
   <si>
     <t>Product</t>
   </si>
@@ -246,9 +246,6 @@
     <t>Gaming console (Xbox Series X)</t>
   </si>
   <si>
-    <t>Full charge</t>
-  </si>
-  <si>
     <t>Using an e-scooter</t>
   </si>
   <si>
@@ -265,6 +262,15 @@
   </si>
   <si>
     <t>Electric heat pump (3-bed house)</t>
+  </si>
+  <si>
+    <t>Vacuum cleaner (hoover)</t>
+  </si>
+  <si>
+    <t>Per day (full charge)</t>
+  </si>
+  <si>
+    <t>Per day</t>
   </si>
 </sst>
 </file>
@@ -341,6 +347,7 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
       <xxl21:absoluteUrl r:id="rId2"/>
+      <xxl21:relativeUrl r:id="rId3"/>
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Energy use of products"/>
@@ -700,8 +707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B239A6D3-151C-6C42-AB20-47DEE8CAFF43}">
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -781,7 +788,7 @@
         <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E6">
         <v>20</v>
@@ -1022,9 +1029,9 @@
       <c r="D20">
         <v>0.5</v>
       </c>
-      <c r="E20">
-        <f t="shared" si="0"/>
-        <v>1250</v>
+      <c r="E20" s="2">
+        <f>B20*D20*0.55</f>
+        <v>687.5</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -1040,9 +1047,9 @@
       <c r="D21">
         <v>0.5</v>
       </c>
-      <c r="E21">
-        <f t="shared" ref="E21" si="2">B21*D21</f>
-        <v>1500</v>
+      <c r="E21" s="2">
+        <f>B21*D21*0.55</f>
+        <v>825.00000000000011</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -1060,7 +1067,7 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="E22" s="2">
-        <f t="shared" ref="E22:E23" si="3">B22*D22</f>
+        <f t="shared" ref="E22:E23" si="2">B22*D22</f>
         <v>166.66666666666666</v>
       </c>
     </row>
@@ -1079,7 +1086,7 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="E23" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>125</v>
       </c>
     </row>
@@ -1098,7 +1105,7 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="E24" s="2">
-        <f t="shared" ref="E24" si="4">B24*D24</f>
+        <f t="shared" ref="E24" si="3">B24*D24</f>
         <v>266.66666666666663</v>
       </c>
     </row>
@@ -1106,6 +1113,9 @@
       <c r="A25" t="s">
         <v>45</v>
       </c>
+      <c r="C25" t="s">
+        <v>76</v>
+      </c>
       <c r="E25" s="2">
         <v>275</v>
       </c>
@@ -1114,6 +1124,9 @@
       <c r="A26" t="s">
         <v>46</v>
       </c>
+      <c r="C26" t="s">
+        <v>76</v>
+      </c>
       <c r="E26" s="2">
         <f>300*1000/365</f>
         <v>821.91780821917803</v>
@@ -1126,7 +1139,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="B28">
         <v>750</v>
@@ -1139,7 +1152,7 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="E28" s="2">
-        <f t="shared" ref="E28" si="5">B28*D28</f>
+        <f t="shared" ref="E28" si="4">B28*D28</f>
         <v>125</v>
       </c>
     </row>
@@ -1202,7 +1215,7 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="E33" s="2">
-        <f t="shared" ref="E33" si="6">B33*D33</f>
+        <f t="shared" ref="E33" si="5">B33*D33</f>
         <v>416.66666666666663</v>
       </c>
     </row>
@@ -1226,7 +1239,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="E35" s="1">
-        <f t="shared" ref="E35:E45" si="7">B35*D35</f>
+        <f t="shared" ref="E35:E45" si="6">B35*D35</f>
         <v>145.83333333333331</v>
       </c>
     </row>
@@ -1245,7 +1258,7 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="E36" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1583.3333333333333</v>
       </c>
     </row>
@@ -1265,7 +1278,7 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="E37" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1759.2592592592591</v>
       </c>
     </row>
@@ -1283,7 +1296,7 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>50</v>
       </c>
     </row>
@@ -1301,13 +1314,13 @@
         <v>1</v>
       </c>
       <c r="E39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>750</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B40">
         <v>1500</v>
@@ -1319,7 +1332,7 @@
         <v>1</v>
       </c>
       <c r="E40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1500</v>
       </c>
     </row>
@@ -1337,13 +1350,13 @@
         <v>1</v>
       </c>
       <c r="E41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>800</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B42">
         <v>2250</v>
@@ -1355,7 +1368,7 @@
         <v>1</v>
       </c>
       <c r="E42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2250</v>
       </c>
     </row>
@@ -1373,13 +1386,13 @@
         <v>1</v>
       </c>
       <c r="E43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2700</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B44">
         <v>7500</v>
@@ -1391,7 +1404,7 @@
         <v>1</v>
       </c>
       <c r="E44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>7500</v>
       </c>
     </row>
@@ -1409,7 +1422,7 @@
         <v>1</v>
       </c>
       <c r="E45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
     </row>
@@ -1431,7 +1444,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B48">
         <v>25</v>
@@ -1442,7 +1455,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B49">
         <v>150</v>
@@ -1453,7 +1466,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B50">
         <v>530</v>

--- a/Energy use of products.xlsx
+++ b/Energy use of products.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahritchie/Desktop/data-projects/energy-use-products/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E932A3BB-513F-B241-8586-27366F7FD331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D704EBA5-33F3-F845-A765-08E380F32C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21960" yWindow="2800" windowWidth="33820" windowHeight="22300" xr2:uid="{E9F44B29-F67D-AA43-897E-E427581FB5C3}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="18980" xr2:uid="{E9F44B29-F67D-AA43-897E-E427581FB5C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Energy" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="92">
   <si>
     <t>Product</t>
   </si>
@@ -237,9 +237,6 @@
     <t>Petrol lawnmower</t>
   </si>
   <si>
-    <t>Laptop or efficient desktop</t>
-  </si>
-  <si>
     <t>Gaming console (Xbox Series S)</t>
   </si>
   <si>
@@ -271,6 +268,54 @@
   </si>
   <si>
     <t>Per day</t>
+  </si>
+  <si>
+    <t>Home internet (WiFi)</t>
+  </si>
+  <si>
+    <t>Fuel type</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>Gas</t>
+  </si>
+  <si>
+    <t>Petrol</t>
+  </si>
+  <si>
+    <t>Dehumidifier (medium)</t>
+  </si>
+  <si>
+    <t>Dehumidifier (large)</t>
+  </si>
+  <si>
+    <t>Footer note</t>
+  </si>
+  <si>
+    <t>Electric strimmer</t>
+  </si>
+  <si>
+    <t>Gas strimmer</t>
+  </si>
+  <si>
+    <t>Pressure washer</t>
+  </si>
+  <si>
+    <t>Electric shower (heat pump)</t>
+  </si>
+  <si>
+    <t>The energy use of images, videos, and longer LLM queries will be higher than this. This is for the median text query only.</t>
+  </si>
+  <si>
+    <t>The marginal increase in electricity use from Netflix's servers is just 0.028W per hour of streaming. The remainder is for transmission and distribution (mostly in your own home). Here, the electricity usage of having a WiFi connection is also shown, however that does not increase proportionally to your streaming time (most people have their WiFi running 24/7 regardless).</t>
+  </si>
+  <si>
+    <t>The marginal increase in electricity use from the provider's servers is just 0.028W per hour of streaming. The remainder is for transmission and distribution (mostly in your own home). Here, the electricity usage of having a WiFi connection is also shown, however that does not increase proportionally to your streaming time (most people have their WiFi running 24/7 regardless).</t>
+  </si>
+  <si>
+    <t>Desktop computer</t>
   </si>
 </sst>
 </file>
@@ -359,13 +404,12 @@
       <sheetName val="Script output"/>
       <sheetName val="Filtered and cleaned"/>
       <sheetName val="raw_iea_data"/>
-      <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
       <sheetData sheetId="4">
         <row r="5">
           <cell r="B5">
@@ -378,11 +422,10 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -705,10 +748,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B239A6D3-151C-6C42-AB20-47DEE8CAFF43}">
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -717,10 +760,10 @@
     <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.1640625" customWidth="1"/>
     <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -736,13 +779,19 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -759,8 +808,11 @@
         <f>B3*D3</f>
         <v>60</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -777,24 +829,30 @@
         <f>B4*D4</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E6">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
@@ -811,8 +869,11 @@
         <f t="shared" ref="E7:E20" si="0">B7*D7</f>
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
@@ -829,13 +890,16 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B9">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
         <v>25</v>
@@ -845,12 +909,15 @@
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="B10">
         <v>50</v>
@@ -865,10 +932,13 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B11">
         <v>70</v>
@@ -883,10 +953,13 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12">
         <v>150</v>
@@ -901,13 +974,16 @@
         <f t="shared" ref="E12" si="1">B12*D12</f>
         <v>150</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B13">
-        <v>18</v>
+        <v>0.2</v>
       </c>
       <c r="C13" t="s">
         <v>25</v>
@@ -917,15 +993,21 @@
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B14">
-        <v>20</v>
+        <v>0.2</v>
       </c>
       <c r="C14" t="s">
         <v>25</v>
@@ -935,111 +1017,135 @@
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="B15">
-        <v>0.3</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="F15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+        <v>0.3</v>
+      </c>
+      <c r="F16" t="s">
+        <v>78</v>
+      </c>
+      <c r="G16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>9</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>2000</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>28</v>
       </c>
-      <c r="D18">
+      <c r="D19">
         <v>0.05</v>
       </c>
-      <c r="E18">
-        <f>B18*D18</f>
+      <c r="E19">
+        <f>B19*D19</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="F19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>8</v>
       </c>
-      <c r="B19">
+      <c r="B20">
         <v>1000</v>
       </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="1">
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="1">
         <f>1/12</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E20" s="2">
         <f t="shared" si="0"/>
         <v>83.333333333333329</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="F20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>57</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>2500</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20">
-        <v>0.5</v>
-      </c>
-      <c r="E20" s="2">
-        <f>B20*D20*0.55</f>
-        <v>687.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21">
-        <v>3000</v>
       </c>
       <c r="C21" t="s">
         <v>25</v>
@@ -1049,34 +1155,39 @@
       </c>
       <c r="E21" s="2">
         <f>B21*D21*0.55</f>
+        <v>687.5</v>
+      </c>
+      <c r="F21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22">
+        <v>3000</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22">
+        <v>0.5</v>
+      </c>
+      <c r="E22" s="2">
+        <f>B22*D22*0.55</f>
         <v>825.00000000000011</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="F22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>54</v>
       </c>
-      <c r="B22">
+      <c r="B23">
         <v>1000</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="1">
-        <f>1/6</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="E22" s="2">
-        <f t="shared" ref="E22:E23" si="2">B22*D22</f>
-        <v>166.66666666666666</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23">
-        <v>750</v>
       </c>
       <c r="C23" t="s">
         <v>25</v>
@@ -1086,16 +1197,19 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="E23" s="2">
-        <f t="shared" si="2"/>
-        <v>125</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" ref="E23:E24" si="2">B23*D23</f>
+        <v>166.66666666666666</v>
+      </c>
+      <c r="F23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B24">
-        <v>1600</v>
+        <v>750</v>
       </c>
       <c r="C24" t="s">
         <v>25</v>
@@ -1105,150 +1219,195 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="E24" s="2">
-        <f t="shared" ref="E24" si="3">B24*D24</f>
+        <f t="shared" si="2"/>
+        <v>125</v>
+      </c>
+      <c r="F24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25">
+        <v>1600</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="1">
+        <f>1/6</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" ref="E25" si="3">B25*D25</f>
         <v>266.66666666666663</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="F25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>45</v>
       </c>
-      <c r="C25" t="s">
-        <v>76</v>
-      </c>
-      <c r="E25" s="2">
+      <c r="C26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" s="2">
         <v>275</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="F26" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>46</v>
       </c>
-      <c r="C26" t="s">
-        <v>76</v>
-      </c>
-      <c r="E26" s="2">
+      <c r="C27" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" s="2">
         <f>300*1000/365</f>
         <v>821.91780821917803</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
+      <c r="F27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B28">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29">
         <v>750</v>
       </c>
-      <c r="C28" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" s="1">
+      <c r="C29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="1">
         <f>1/6</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="E28" s="2">
-        <f t="shared" ref="E28" si="4">B28*D28</f>
+      <c r="E29" s="2">
+        <f t="shared" ref="E29" si="4">B29*D29</f>
         <v>125</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="F29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>11</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>59</v>
       </c>
       <c r="C30" t="s">
         <v>26</v>
       </c>
       <c r="E30">
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+        <v>800</v>
+      </c>
+      <c r="F30" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C31" t="s">
         <v>26</v>
       </c>
       <c r="E31">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4500</v>
+      </c>
+      <c r="F31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="C32" t="s">
         <v>26</v>
       </c>
       <c r="E32">
+        <v>2000</v>
+      </c>
+      <c r="F32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33">
+        <v>500</v>
+      </c>
+      <c r="C33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" s="2">
+        <f t="shared" ref="E33:E34" si="5">B33*D33</f>
+        <v>500</v>
+      </c>
+      <c r="F33" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34">
+        <v>1000</v>
+      </c>
+      <c r="C34" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" si="5"/>
+        <v>1000</v>
+      </c>
+      <c r="F34" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35">
         <v>1250</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="F35" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>44</v>
       </c>
-      <c r="B33">
+      <c r="B36">
         <v>2500</v>
-      </c>
-      <c r="C33" t="s">
-        <v>25</v>
-      </c>
-      <c r="D33" s="1">
-        <f>1/6</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="E33" s="2">
-        <f t="shared" ref="E33" si="5">B33*D33</f>
-        <v>416.66666666666663</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35">
-        <v>1750</v>
-      </c>
-      <c r="C35" t="s">
-        <v>25</v>
-      </c>
-      <c r="D35" s="1">
-        <f>1/12</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="E35" s="1">
-        <f t="shared" ref="E35:E45" si="6">B35*D35</f>
-        <v>145.83333333333331</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>19</v>
-      </c>
-      <c r="B36">
-        <v>9500</v>
       </c>
       <c r="C36" t="s">
         <v>25</v>
@@ -1258,284 +1417,472 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="E36" s="2">
-        <f t="shared" si="6"/>
-        <v>1583.3333333333333</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>61</v>
-      </c>
-      <c r="B37" s="2">
-        <f>B36/90%</f>
-        <v>10555.555555555555</v>
-      </c>
-      <c r="C37" t="s">
-        <v>25</v>
-      </c>
-      <c r="D37" s="1">
+        <f t="shared" ref="E36" si="6">B36*D36</f>
+        <v>416.66666666666663</v>
+      </c>
+      <c r="F36" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38">
+        <v>1750</v>
+      </c>
+      <c r="C38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" s="1">
+        <f>1/12</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E38" s="1">
+        <f t="shared" ref="E38:E49" si="7">B38*D38</f>
+        <v>145.83333333333331</v>
+      </c>
+      <c r="F38" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39">
+        <v>9500</v>
+      </c>
+      <c r="C39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" s="1">
         <f>1/6</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="E37" s="2">
-        <f t="shared" si="6"/>
+      <c r="E39" s="2">
+        <f t="shared" si="7"/>
+        <v>1583.3333333333333</v>
+      </c>
+      <c r="F39" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>87</v>
+      </c>
+      <c r="B40">
+        <v>3000</v>
+      </c>
+      <c r="C40" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" s="1">
+        <f>1/6</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E40" s="2">
+        <f t="shared" ref="E40" si="8">B40*D40</f>
+        <v>500</v>
+      </c>
+      <c r="F40" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41" s="2">
+        <f>B39/90%</f>
+        <v>10555.555555555555</v>
+      </c>
+      <c r="C41" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" s="1">
+        <f>1/6</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E41" s="2">
+        <f t="shared" si="7"/>
         <v>1759.2592592592591</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="F41" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>14</v>
       </c>
-      <c r="B38">
+      <c r="B42">
         <v>50</v>
       </c>
-      <c r="C38" t="s">
-        <v>25</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38">
-        <f t="shared" si="6"/>
+      <c r="C42" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
+      <c r="F42" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B39">
+      <c r="B43">
         <v>750</v>
       </c>
-      <c r="C39" t="s">
-        <v>25</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39">
-        <f t="shared" si="6"/>
+      <c r="C43" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="7"/>
         <v>750</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
+      <c r="F43" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44">
+        <v>1500</v>
+      </c>
+      <c r="C44" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="7"/>
+        <v>1500</v>
+      </c>
+      <c r="F44" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45">
+        <v>800</v>
+      </c>
+      <c r="C45" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="7"/>
+        <v>800</v>
+      </c>
+      <c r="F45" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B46">
+        <v>2250</v>
+      </c>
+      <c r="C46" t="s">
+        <v>25</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="7"/>
+        <v>2250</v>
+      </c>
+      <c r="F46" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47">
+        <v>2700</v>
+      </c>
+      <c r="C47" t="s">
+        <v>25</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="7"/>
+        <v>2700</v>
+      </c>
+      <c r="F47" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B40">
-        <v>1500</v>
-      </c>
-      <c r="C40" t="s">
-        <v>25</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40">
-        <f t="shared" si="6"/>
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B41">
-        <v>800</v>
-      </c>
-      <c r="C41" t="s">
-        <v>25</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41">
-        <f t="shared" si="6"/>
-        <v>800</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B42">
-        <v>2250</v>
-      </c>
-      <c r="C42" t="s">
-        <v>25</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42">
-        <f t="shared" si="6"/>
-        <v>2250</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B43">
-        <v>2700</v>
-      </c>
-      <c r="C43" t="s">
-        <v>25</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43">
-        <f t="shared" si="6"/>
-        <v>2700</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B44">
+      <c r="B48">
         <v>7500</v>
       </c>
-      <c r="C44" t="s">
-        <v>25</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44">
-        <f t="shared" si="6"/>
+      <c r="C48" t="s">
+        <v>25</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="7"/>
         <v>7500</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
+      <c r="F48" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B45">
+      <c r="B49">
         <v>1000</v>
       </c>
-      <c r="C45" t="s">
-        <v>25</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45">
-        <f t="shared" si="6"/>
+      <c r="C49" t="s">
+        <v>25</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="7"/>
         <v>1000</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="4" t="s">
+      <c r="F49" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B47">
-        <v>25</v>
-      </c>
-      <c r="C47" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>68</v>
-      </c>
-      <c r="B48">
-        <v>25</v>
-      </c>
-      <c r="C48" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>69</v>
-      </c>
-      <c r="B49">
-        <v>150</v>
-      </c>
-      <c r="C49" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>70</v>
-      </c>
-      <c r="B50">
-        <v>530</v>
-      </c>
-      <c r="C50" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>30</v>
-      </c>
       <c r="B51">
-        <v>300</v>
+        <v>15</v>
       </c>
       <c r="C51" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F51" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="B52">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="C52" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="4" t="s">
+      <c r="F52" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>68</v>
+      </c>
+      <c r="B53">
+        <v>150</v>
+      </c>
+      <c r="C53" t="s">
+        <v>27</v>
+      </c>
+      <c r="F53" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>69</v>
+      </c>
+      <c r="B54">
+        <v>530</v>
+      </c>
+      <c r="C54" t="s">
+        <v>27</v>
+      </c>
+      <c r="F54" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>30</v>
+      </c>
+      <c r="B55">
+        <v>300</v>
+      </c>
+      <c r="C55" t="s">
+        <v>27</v>
+      </c>
+      <c r="F55" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>50</v>
+      </c>
+      <c r="B56">
+        <v>1000</v>
+      </c>
+      <c r="C56" t="s">
+        <v>27</v>
+      </c>
+      <c r="F56" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
         <v>63</v>
       </c>
-      <c r="B54">
+      <c r="B58">
         <v>1500</v>
       </c>
-      <c r="C54" t="s">
-        <v>25</v>
-      </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-      <c r="E54">
-        <f>B54*D54</f>
+      <c r="C58" t="s">
+        <v>25</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <f>B58*D58</f>
         <v>1500</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+      <c r="F58" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
         <v>64</v>
       </c>
-      <c r="B55">
+      <c r="B59">
         <v>9000</v>
       </c>
-      <c r="C55" t="s">
-        <v>25</v>
-      </c>
-      <c r="D55">
-        <v>1</v>
-      </c>
-      <c r="E55">
-        <f>B55*D55</f>
+      <c r="C59" t="s">
+        <v>25</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <f>B59*D59</f>
         <v>9000</v>
+      </c>
+      <c r="F59" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>84</v>
+      </c>
+      <c r="B60">
+        <v>500</v>
+      </c>
+      <c r="C60" t="s">
+        <v>25</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <f>B60*D60</f>
+        <v>500</v>
+      </c>
+      <c r="F60" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>85</v>
+      </c>
+      <c r="B61">
+        <v>3500</v>
+      </c>
+      <c r="C61" t="s">
+        <v>25</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <f>B61*D61</f>
+        <v>3500</v>
+      </c>
+      <c r="F61" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>86</v>
+      </c>
+      <c r="B62">
+        <v>2000</v>
+      </c>
+      <c r="C62" t="s">
+        <v>25</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <f>B62*D62</f>
+        <v>2000</v>
+      </c>
+      <c r="F62" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/Energy use of products.xlsx
+++ b/Energy use of products.xlsx
@@ -751,7 +751,7 @@
   <dimension ref="A1:G62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H56" sqref="H56"/>
+      <selection activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Energy use of products.xlsx
+++ b/Energy use of products.xlsx
@@ -751,7 +751,7 @@
   <dimension ref="A1:G62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="J54" sqref="J54"/>
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
